--- a/02_Clean_data/5/FDOM.xlsx
+++ b/02_Clean_data/5/FDOM.xlsx
@@ -18525,7 +18525,7 @@
         <v>45155.08333333333</v>
       </c>
       <c r="B2270">
-        <v>9.459025000000001</v>
+        <v>9.459025</v>
       </c>
     </row>
     <row r="2271">
@@ -26669,7 +26669,7 @@
         <v>45155.08333333333</v>
       </c>
       <c r="B3288">
-        <v>9.459025000000001</v>
+        <v>9.459025</v>
       </c>
     </row>
     <row r="3289">
@@ -37693,7 +37693,7 @@
         <v>45155.08333333333</v>
       </c>
       <c r="B4666">
-        <v>9.459025000000001</v>
+        <v>9.459025</v>
       </c>
     </row>
     <row r="4667">
@@ -52365,7 +52365,7 @@
         <v>45155.08333333333</v>
       </c>
       <c r="B6500">
-        <v>9.459025000000001</v>
+        <v>9.459025</v>
       </c>
     </row>
     <row r="6501">

--- a/02_Clean_data/5/FDOM.xlsx
+++ b/02_Clean_data/5/FDOM.xlsx
@@ -18525,7 +18525,7 @@
         <v>45155.08333333333</v>
       </c>
       <c r="B2270">
-        <v>9.459025</v>
+        <v>9.459025000000001</v>
       </c>
     </row>
     <row r="2271">
@@ -26669,7 +26669,7 @@
         <v>45155.08333333333</v>
       </c>
       <c r="B3288">
-        <v>9.459025</v>
+        <v>9.459025000000001</v>
       </c>
     </row>
     <row r="3289">
@@ -37693,7 +37693,7 @@
         <v>45155.08333333333</v>
       </c>
       <c r="B4666">
-        <v>9.459025</v>
+        <v>9.459025000000001</v>
       </c>
     </row>
     <row r="4667">
@@ -52365,7 +52365,7 @@
         <v>45155.08333333333</v>
       </c>
       <c r="B6500">
-        <v>9.459025</v>
+        <v>9.459025000000001</v>
       </c>
     </row>
     <row r="6501">
